--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IEE.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IEE.XLSX
@@ -183,6 +183,9 @@
     <t>VINICIUS FARJADO LIMA</t>
   </si>
   <si>
+    <t>GABRIEL CAMARGO BATISTA*</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
@@ -237,9 +240,6 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>1878</t>
   </si>
   <si>
@@ -273,7 +273,7 @@
     <t>3984</t>
   </si>
   <si>
-    <t> </t>
+    <t>4262</t>
   </si>
   <si>
     <t> </t>
